--- a/MyFrame_API/data/Test_Case.xlsx
+++ b/MyFrame_API/data/Test_Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonic/Project/Python/My_API_Frame/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonic/Project/Python/MyFrame_API/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500BD9A9-E360-AC49-B587-069FB32A5AC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE3C99A-8340-3144-940A-09F20A05FB61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1180" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="6180" windowWidth="20580" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>method</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,22 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>isHeader</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dependOnRes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dependField</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,6 +113,10 @@
   </si>
   <si>
     <t>name=yuhang&amp;pw=111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,23 +497,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="264" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="4" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="260" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,132 +530,106 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -676,12 +638,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -690,12 +648,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -704,10 +658,6 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
